--- a/province_by_stillnum.xlsx
+++ b/province_by_stillnum.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,45 +399,55 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>econNum</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>susNum</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>deathNum</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cureNum</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>adddaily.conadd</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>adddaily.deathadd</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>adddaily.cureadd</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>adddaily.econadd</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>adddaily.conadd_n</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>adddaily.deathadd_n</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>adddaily.cureadd_n</t>
         </is>
@@ -458,49 +468,61 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>47514</v>
+        <v>34596</v>
       </c>
       <c r="E2" t="n">
-        <v>63454</v>
-      </c>
-      <c r="F2" t="n">
-        <v>366</v>
+        <v>66337</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>2250</v>
+          <t>34596</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J2" t="n">
-        <v>13690</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>+366</t>
-        </is>
+        <v>2727</v>
+      </c>
+      <c r="K2" t="n">
+        <v>29014</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>+106</t>
+          <t>+423</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>+1902</t>
-        </is>
-      </c>
-      <c r="N2" t="n">
-        <v>366</v>
-      </c>
-      <c r="O2" t="n">
-        <v>106</v>
+          <t>+45</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>+2611</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>-2233</t>
+        </is>
       </c>
       <c r="P2" t="n">
-        <v>1902</v>
+        <v>423</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>45</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2611</v>
       </c>
     </row>
     <row r="3">
@@ -518,49 +540,61 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>606</v>
+        <v>366</v>
       </c>
       <c r="E3" t="n">
-        <v>1339</v>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+        <v>1349</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
+          <t>366</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J3" t="n">
-        <v>728</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="K3" t="n">
+        <v>976</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>+0</t>
+          <t>+1</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>+64</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
-        <v>6</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>+57</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>-56</t>
+        </is>
       </c>
       <c r="P3" t="n">
-        <v>64</v>
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -569,39 +603,41 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>zhejiang</t>
+          <t>shandong</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>485</v>
+        <v>332</v>
       </c>
       <c r="E4" t="n">
-        <v>1205</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
+        <v>756</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J4" t="n">
-        <v>719</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="K4" t="n">
+        <v>418</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -610,17 +646,27 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>+72</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
-        <v>2</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>+28</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>-28</t>
+        </is>
       </c>
       <c r="P4" t="n">
-        <v>72</v>
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -629,39 +675,41 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>shandong</t>
+          <t>zhejiang</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>444</v>
+        <v>188</v>
       </c>
       <c r="E5" t="n">
-        <v>750</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
+        <v>1205</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>4</v>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J5" t="n">
-        <v>302</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1016</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -670,17 +718,27 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>+32</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
-        <v>2</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>+73</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>-73</t>
+        </is>
       </c>
       <c r="P5" t="n">
-        <v>32</v>
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="6">
@@ -689,39 +747,41 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>henan</t>
+          <t>sichuan</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>422</v>
+        <v>184</v>
       </c>
       <c r="E6" t="n">
-        <v>1270</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+        <v>538</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>19</v>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J6" t="n">
-        <v>829</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>351</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -730,17 +790,27 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>+112</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
-        <v>3</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>+25</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>-25</t>
+        </is>
       </c>
       <c r="P6" t="n">
-        <v>112</v>
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="7">
@@ -749,58 +819,70 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>anhui</t>
+          <t>hunan</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>386</v>
+        <v>170</v>
       </c>
       <c r="E7" t="n">
-        <v>989</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
+        <v>1018</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>6</v>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J7" t="n">
-        <v>597</v>
-      </c>
-      <c r="K7" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>844</v>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>+1</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>+97</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>+24</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>-23</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
         <v>1</v>
       </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>97</v>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="8">
@@ -809,39 +891,41 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>jiangxi</t>
+          <t>heilongjiang</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>378</v>
+        <v>166</v>
       </c>
       <c r="E8" t="n">
-        <v>934</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
+        <v>480</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J8" t="n">
-        <v>555</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+        <v>13</v>
+      </c>
+      <c r="K8" t="n">
+        <v>301</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -850,17 +934,27 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>+66</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>+21</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>-21</t>
+        </is>
       </c>
       <c r="P8" t="n">
-        <v>66</v>
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="9">
@@ -869,39 +963,41 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>hunan</t>
+          <t>chongqing</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>317</v>
+        <v>148</v>
       </c>
       <c r="E9" t="n">
-        <v>1013</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
+        <v>576</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>4</v>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J9" t="n">
-        <v>692</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="K9" t="n">
+        <v>422</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -910,17 +1006,27 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>+54</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
-        <v>2</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>+21</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>-21</t>
+        </is>
       </c>
       <c r="P9" t="n">
-        <v>54</v>
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="10">
@@ -929,58 +1035,70 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>sichuan</t>
+          <t>beijing</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>273</v>
+        <v>132</v>
       </c>
       <c r="E10" t="n">
-        <v>526</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
+        <v>411</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>3</v>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J10" t="n">
-        <v>250</v>
-      </c>
-      <c r="K10" t="inlineStr">
+        <v>8</v>
+      </c>
+      <c r="K10" t="n">
+        <v>271</v>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>+1</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>+28</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>+14</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>-14</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
         <v>1</v>
       </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>28</v>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -989,39 +1107,41 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>heilongjiang</t>
+          <t>jiangxi</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>263</v>
+        <v>123</v>
       </c>
       <c r="E11" t="n">
-        <v>479</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
+        <v>935</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v>12</v>
-      </c>
       <c r="J11" t="n">
-        <v>204</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>811</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1030,17 +1150,27 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>+63</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>+21</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>-21</t>
+        </is>
       </c>
       <c r="P11" t="n">
-        <v>63</v>
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="12">
@@ -1049,39 +1179,41 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>chongqing</t>
+          <t>anhui</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>250</v>
+        <v>116</v>
       </c>
       <c r="E12" t="n">
-        <v>572</v>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
+        <v>990</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+          <t>116</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
         <v>6</v>
       </c>
-      <c r="J12" t="n">
-        <v>316</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="K12" t="n">
+        <v>868</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1090,17 +1222,27 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>+17</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
-        <v>5</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>+54</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>-54</t>
+        </is>
       </c>
       <c r="P12" t="n">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="13">
@@ -1118,30 +1260,32 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>230</v>
+        <v>108</v>
       </c>
       <c r="E13" t="n">
         <v>631</v>
       </c>
-      <c r="F13" t="n">
-        <v>0</v>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J13" t="n">
-        <v>401</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>523</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1150,17 +1294,27 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>+49</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>+17</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>-17</t>
+        </is>
       </c>
       <c r="P13" t="n">
-        <v>49</v>
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="14">
@@ -1169,39 +1323,41 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>beijing</t>
+          <t>henan</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>217</v>
+        <v>81</v>
       </c>
       <c r="E14" t="n">
-        <v>399</v>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
+        <v>1272</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>4</v>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J14" t="n">
-        <v>178</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+        <v>21</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1170</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1210,17 +1366,27 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>+9</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
-        <v>3</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>+67</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>-68</t>
+        </is>
       </c>
       <c r="P14" t="n">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="15">
@@ -1238,30 +1404,32 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>143</v>
+        <v>74</v>
       </c>
       <c r="E15" t="n">
-        <v>249</v>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
+        <v>252</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+          <t>74</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
         <v>2</v>
       </c>
-      <c r="J15" t="n">
-        <v>104</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="K15" t="n">
+        <v>176</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1270,17 +1438,27 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>+9</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
-        <v>3</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
       </c>
       <c r="P15" t="n">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1289,58 +1467,70 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>fujian</t>
+          <t>xianggang</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="E16" t="n">
-        <v>293</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
+        <v>94</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+          <t>62</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>30</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>+4</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
         <v>1</v>
       </c>
-      <c r="J16" t="n">
-        <v>162</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>+28</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>28</v>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1349,58 +1539,70 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>shanghai</t>
+          <t>fujian</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="E17" t="n">
-        <v>335</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
+        <v>296</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>3</v>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J17" t="n">
-        <v>227</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>242</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>+1</t>
+          <t>+0</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>+28</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
-        <v>1</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
       </c>
       <c r="P17" t="n">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1409,58 +1611,70 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>hebei</t>
+          <t>shanghai</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="E18" t="n">
-        <v>309</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1</v>
+        <v>337</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>6</v>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
       </c>
       <c r="J18" t="n">
-        <v>203</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="K18" t="n">
+        <v>287</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>+1</t>
+          <t>+0</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>+33</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
-        <v>1</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
       </c>
       <c r="P18" t="n">
-        <v>33</v>
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -1478,30 +1692,32 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="E19" t="n">
         <v>245</v>
       </c>
-      <c r="F19" t="n">
-        <v>0</v>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+          <t>37</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
         <v>1</v>
       </c>
-      <c r="J19" t="n">
-        <v>149</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="K19" t="n">
+        <v>207</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1510,17 +1726,27 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>+32</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
       </c>
       <c r="P19" t="n">
-        <v>32</v>
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1529,39 +1755,41 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>tianjin</t>
+          <t>guizhou</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="E20" t="n">
-        <v>135</v>
-      </c>
-      <c r="F20" t="n">
-        <v>4</v>
+        <v>146</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>3</v>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J20" t="n">
-        <v>65</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="K20" t="n">
+        <v>112</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1570,17 +1798,27 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>+6</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
-        <v>4</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
       </c>
       <c r="P20" t="n">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1589,39 +1827,41 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>yunnan</t>
+          <t>hebei</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="E21" t="n">
-        <v>174</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
+        <v>318</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
-        <v>2</v>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J21" t="n">
-        <v>107</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="K21" t="n">
+        <v>281</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1630,17 +1870,27 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>+28</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>+7</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
       </c>
       <c r="P21" t="n">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1649,58 +1899,70 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>台湾</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>hainan</t>
+          <t>taiwan</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="E22" t="n">
-        <v>168</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
-        <v>4</v>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J22" t="n">
-        <v>104</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>9</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>+0</t>
+          <t>+7</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>+15</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>+3</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>+4</t>
+        </is>
       </c>
       <c r="P22" t="n">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -1709,39 +1971,41 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>xianggang</t>
+          <t>neimenggu</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="E23" t="n">
-        <v>69</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1</v>
+        <v>75</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>2</v>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J23" t="n">
-        <v>10</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>49</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1750,17 +2014,27 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>+5</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>+6</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
       </c>
       <c r="P23" t="n">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -1778,30 +2052,32 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="E24" t="n">
         <v>121</v>
       </c>
-      <c r="F24" t="n">
-        <v>0</v>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
         <v>1</v>
       </c>
-      <c r="J24" t="n">
-        <v>66</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="K24" t="n">
+        <v>95</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1810,17 +2086,27 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>+5</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
       </c>
       <c r="P24" t="n">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -1829,39 +2115,41 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>guizhou</t>
+          <t>tianjin</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="E25" t="n">
-        <v>146</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
+        <v>136</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
-        <v>2</v>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J25" t="n">
-        <v>90</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="K25" t="n">
+        <v>109</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1870,17 +2158,27 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>+14</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>+7</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
       </c>
       <c r="P25" t="n">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -1898,30 +2196,32 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>132</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
+        <v>133</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J26" t="n">
-        <v>79</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>113</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1930,17 +2230,27 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>+3</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>+6</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
       </c>
       <c r="P26" t="n">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -1949,39 +2259,41 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>neimenggu</t>
+          <t>jilin</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="E27" t="n">
-        <v>75</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J27" t="n">
-        <v>23</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>75</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1990,17 +2302,27 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>+6</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>+7</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
       </c>
       <c r="P27" t="n">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -2009,58 +2331,70 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>新疆</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>xinjiang</t>
+          <t>hainan</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="E28" t="n">
-        <v>76</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
+        <v>168</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>2</v>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J28" t="n">
-        <v>25</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="K28" t="n">
+        <v>147</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>+1</t>
+          <t>+0</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>+3</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>+15</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
       </c>
       <c r="P28" t="n">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="29">
@@ -2069,39 +2403,41 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>jilin</t>
+          <t>yunnan</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E29" t="n">
-        <v>91</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
+        <v>174</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J29" t="n">
-        <v>52</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="K29" t="n">
+        <v>157</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -2110,17 +2446,27 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>+8</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>+7</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
       </c>
       <c r="P29" t="n">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -2129,39 +2475,41 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>台湾</t>
+          <t>新疆</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>taiwan</t>
+          <t>xinjiang</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E30" t="n">
-        <v>26</v>
-      </c>
-      <c r="F30" t="n">
-        <v>2</v>
+        <v>76</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J30" t="n">
-        <v>2</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="K30" t="n">
+        <v>62</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -2173,14 +2521,24 @@
           <t>+0</t>
         </is>
       </c>
-      <c r="N30" t="n">
-        <v>2</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>+19</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>-19</t>
+        </is>
       </c>
       <c r="P30" t="n">
         <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="31">
@@ -2189,39 +2547,41 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>宁夏</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ningxia</t>
+          <t>gansu</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E31" t="n">
-        <v>71</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
+        <v>91</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J31" t="n">
-        <v>48</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="K31" t="n">
+        <v>82</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -2230,17 +2590,27 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>+4</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
       </c>
       <c r="P31" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -2249,58 +2619,70 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>宁夏</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>gansu</t>
+          <t>ningxia</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E32" t="n">
-        <v>91</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>2</v>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J32" t="n">
-        <v>76</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>69</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>+0</t>
+          <t>+1</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>+5</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
       </c>
       <c r="P32" t="n">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -2318,30 +2700,32 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E33" t="n">
         <v>10</v>
       </c>
-      <c r="F33" t="n">
-        <v>0</v>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J33" t="n">
-        <v>6</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>8</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -2353,13 +2737,23 @@
           <t>+0</t>
         </is>
       </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
       </c>
       <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2383,8 +2777,10 @@
       <c r="E34" t="n">
         <v>1</v>
       </c>
-      <c r="F34" t="n">
-        <v>0</v>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
@@ -2392,17 +2788,17 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>1</v>
       </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
       <c r="L34" t="inlineStr">
         <is>
           <t>+0</t>
@@ -2413,13 +2809,19 @@
           <t>+0</t>
         </is>
       </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr"/>
       <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2443,8 +2845,10 @@
       <c r="E35" t="n">
         <v>18</v>
       </c>
-      <c r="F35" t="n">
-        <v>0</v>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
@@ -2452,17 +2856,17 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>18</v>
       </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
       <c r="L35" t="inlineStr">
         <is>
           <t>+0</t>
@@ -2470,17 +2874,23 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>+2</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr"/>
       <c r="P35" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/province_by_stillnum.xlsx
+++ b/province_by_stillnum.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -419,35 +419,40 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>jwsr</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>adddaily.conadd</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>adddaily.deathadd</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>adddaily.cureadd</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>adddaily.econadd</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>adddaily.conadd_n</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>adddaily.deathadd_n</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>adddaily.cureadd_n</t>
         </is>
@@ -468,20 +473,20 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>34596</v>
+        <v>10431</v>
       </c>
       <c r="E2" t="n">
-        <v>66337</v>
+        <v>67794</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>34596</t>
+          <t>10431</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -490,39 +495,40 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>2727</v>
+        <v>3085</v>
       </c>
       <c r="K2" t="n">
-        <v>29014</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>+423</t>
-        </is>
-      </c>
+        <v>54278</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>+45</t>
+          <t>+4</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>+2611</t>
+          <t>+10</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-2233</t>
-        </is>
-      </c>
-      <c r="P2" t="n">
-        <v>423</v>
+          <t>+1335</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>-1341</t>
+        </is>
       </c>
       <c r="Q2" t="n">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="R2" t="n">
-        <v>2611</v>
+        <v>10</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1335</v>
       </c>
     </row>
     <row r="3">
@@ -531,70 +537,75 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>guangdong</t>
+          <t>beijing</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>366</v>
+        <v>81</v>
       </c>
       <c r="E3" t="n">
-        <v>1349</v>
+        <v>442</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>81</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>37</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K3" t="n">
-        <v>976</v>
+        <v>353</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
+          <t>含境外输入</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>+5</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>+4</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
           <t>+1</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>+57</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>-56</t>
-        </is>
-      </c>
-      <c r="P3" t="n">
-        <v>1</v>
-      </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R3" t="n">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -603,70 +614,71 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>shandong</t>
+          <t>xianggang</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>332</v>
+        <v>56</v>
       </c>
       <c r="E4" t="n">
-        <v>756</v>
+        <v>141</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>56</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>418</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>+0</t>
+          <t>+4</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>+28</t>
+          <t>+0</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>-28</t>
-        </is>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
+          <t>+3</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R4" t="n">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -675,70 +687,71 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>zhejiang</t>
+          <t>guangdong</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>188</v>
+        <v>46</v>
       </c>
       <c r="E5" t="n">
-        <v>1205</v>
+        <v>1357</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>46</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J5" t="n">
+        <v>8</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1303</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>+4</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
         <v>1</v>
       </c>
-      <c r="K5" t="n">
-        <v>1016</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>+73</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>-73</t>
-        </is>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
       <c r="R5" t="n">
-        <v>73</v>
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -747,29 +760,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>sichuan</t>
+          <t>gansu</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>184</v>
+        <v>39</v>
       </c>
       <c r="E6" t="n">
-        <v>538</v>
+        <v>132</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>39</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -778,39 +791,44 @@
         </is>
       </c>
       <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>91</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>含境外输入</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>+3</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
         <v>3</v>
       </c>
-      <c r="K6" t="n">
-        <v>351</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>+25</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
       <c r="R6" t="n">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -819,29 +837,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>台湾</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>hunan</t>
+          <t>taiwan</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>170</v>
+        <v>32</v>
       </c>
       <c r="E7" t="n">
-        <v>1018</v>
+        <v>53</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>32</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -850,39 +868,40 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>844</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>+0</t>
+          <t>+3</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>+24</t>
+          <t>+0</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>-23</t>
-        </is>
-      </c>
-      <c r="P7" t="n">
-        <v>1</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>+3</t>
+        </is>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R7" t="n">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -891,70 +910,75 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>heilongjiang</t>
+          <t>shanghai</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="E8" t="n">
-        <v>480</v>
+        <v>353</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>26</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>+0</t>
+          <t>含境外输入</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>+0</t>
+          <t>+3</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>+21</t>
+          <t>+0</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>-21</t>
-        </is>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>+3</t>
+        </is>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R8" t="n">
-        <v>21</v>
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -963,19 +987,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>chongqing</t>
+          <t>sichuan</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="E9" t="n">
-        <v>576</v>
+        <v>539</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -985,7 +1009,7 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -994,16 +1018,12 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>422</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
           <t>+0</t>
@@ -1011,22 +1031,27 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>+21</t>
+          <t>+0</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>-21</t>
-        </is>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
+          <t>+5</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>21</v>
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1035,29 +1060,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>beijing</t>
+          <t>zhejiang</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="E10" t="n">
-        <v>411</v>
+        <v>1231</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>19</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1066,39 +1091,44 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>271</v>
+        <v>1211</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>+1</t>
+          <t>含境外输入</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>+1</t>
+          <t>+4</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>+14</t>
+          <t>+0</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>+4</t>
+        </is>
       </c>
       <c r="Q10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R10" t="n">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1107,19 +1137,19 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>jiangxi</t>
+          <t>heilongjiang</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="E11" t="n">
-        <v>935</v>
+        <v>482</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1129,25 +1159,21 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>16</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="K11" t="n">
-        <v>811</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
           <t>+0</t>
@@ -1155,22 +1181,27 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>+21</t>
+          <t>+0</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>-21</t>
-        </is>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
+          <t>+6</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>21</v>
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1179,19 +1210,19 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>anhui</t>
+          <t>shandong</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>990</v>
+        <v>760</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1201,7 +1232,7 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1210,14 +1241,14 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K12" t="n">
-        <v>868</v>
+        <v>741</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>+0</t>
+          <t>含境外输入</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1227,22 +1258,27 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>+54</t>
+          <t>+0</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>-54</t>
-        </is>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>54</v>
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1251,19 +1287,19 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>jiangsu</t>
+          <t>shanxis</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>108</v>
+        <v>11</v>
       </c>
       <c r="E13" t="n">
-        <v>631</v>
+        <v>245</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1273,7 +1309,7 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1282,16 +1318,12 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>523</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
           <t>+0</t>
@@ -1299,22 +1331,27 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>+17</t>
+          <t>+0</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>-17</t>
-        </is>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1323,19 +1360,19 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>henan</t>
+          <t>liaoning</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="E14" t="n">
-        <v>1272</v>
+        <v>125</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1345,7 +1382,7 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1354,39 +1391,40 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>1170</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
           <t>+1</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>+67</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>-68</t>
-        </is>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
       </c>
       <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
         <v>1</v>
-      </c>
-      <c r="R14" t="n">
-        <v>67</v>
       </c>
     </row>
     <row r="15">
@@ -1404,7 +1442,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="E15" t="n">
         <v>252</v>
@@ -1417,7 +1455,7 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>7</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1429,13 +1467,9 @@
         <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>176</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
           <t>+0</t>
@@ -1443,22 +1477,27 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>+10</t>
+          <t>+0</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1467,29 +1506,29 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>xianggang</t>
+          <t>neimenggu</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1498,16 +1537,12 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>30</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
           <t>+0</t>
@@ -1515,22 +1550,27 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>+4</t>
+          <t>+0</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="P16" t="n">
-        <v>1</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1539,19 +1579,19 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>宁夏</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>fujian</t>
+          <t>ningxia</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>296</v>
+        <v>75</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1561,7 +1601,7 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1570,39 +1610,40 @@
         </is>
       </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>73</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
         <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>242</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>+10</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1611,19 +1652,19 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>shanghai</t>
+          <t>hainan</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>337</v>
+        <v>168</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1633,25 +1674,21 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K18" t="n">
-        <v>287</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
           <t>+0</t>
@@ -1659,22 +1696,27 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>+11</t>
+          <t>+0</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1683,19 +1725,19 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>shanxis</t>
+          <t>hebei</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>245</v>
+        <v>318</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1705,7 +1747,7 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1714,16 +1756,12 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K19" t="n">
-        <v>207</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
           <t>+0</t>
@@ -1731,22 +1769,27 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>+10</t>
+          <t>+0</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1755,19 +1798,19 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>guizhou</t>
+          <t>jilin</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1777,7 +1820,7 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1786,16 +1829,12 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>112</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
           <t>+0</t>
@@ -1811,13 +1850,18 @@
           <t>+0</t>
         </is>
       </c>
-      <c r="P20" t="n">
-        <v>0</v>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1827,19 +1871,19 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>hebei</t>
+          <t>tianjin</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>318</v>
+        <v>136</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1849,7 +1893,7 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1858,16 +1902,12 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
-        <v>281</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
           <t>+0</t>
@@ -1875,22 +1915,27 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>+7</t>
+          <t>+0</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1899,29 +1944,29 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>台湾</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>taiwan</t>
+          <t>guizhou</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>39</v>
+        <v>146</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1930,16 +1975,12 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K22" t="n">
-        <v>9</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
           <t>+0</t>
@@ -1947,22 +1988,27 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>+3</t>
+          <t>+0</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>+4</t>
-        </is>
-      </c>
-      <c r="P22" t="n">
-        <v>7</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1971,29 +2017,33 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>neimenggu</t>
+          <t>henan</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>75</v>
+        <v>1273</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2002,14 +2052,14 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="K23" t="n">
-        <v>49</v>
+        <v>1250</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>+0</t>
+          <t>含境外输入</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2019,22 +2069,27 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>+6</t>
+          <t>+0</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -2043,19 +2098,19 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>澳门</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>liaoning</t>
+          <t>aomen</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -2065,7 +2120,7 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2074,16 +2129,12 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>95</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
           <t>+0</t>
@@ -2091,22 +2142,27 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>+2</t>
+          <t>+0</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2115,19 +2171,19 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>新疆</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>tianjin</t>
+          <t>xinjiang</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -2137,7 +2193,7 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2149,13 +2205,9 @@
         <v>3</v>
       </c>
       <c r="K25" t="n">
-        <v>109</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
           <t>+0</t>
@@ -2163,22 +2215,27 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>+7</t>
+          <t>+0</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2187,19 +2244,19 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>青海</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>shanxi</t>
+          <t>qinghai</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>133</v>
+        <v>18</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -2209,7 +2266,7 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2221,13 +2278,9 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>113</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
           <t>+0</t>
@@ -2235,22 +2288,27 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>+6</t>
+          <t>+0</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2259,19 +2317,19 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>西藏</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>jilin</t>
+          <t>xizang</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -2281,7 +2339,7 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2290,16 +2348,12 @@
         </is>
       </c>
       <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>1</v>
       </c>
-      <c r="K27" t="n">
-        <v>75</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
           <t>+0</t>
@@ -2307,22 +2361,27 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>+7</t>
+          <t>+0</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2331,19 +2390,19 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>hainan</t>
+          <t>jiangxi</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168</v>
+        <v>935</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -2353,7 +2412,7 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2362,16 +2421,12 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>147</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
+        <v>934</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
           <t>+0</t>
@@ -2379,22 +2434,27 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>+15</t>
+          <t>+0</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2403,19 +2463,19 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>yunnan</t>
+          <t>hunan</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>174</v>
+        <v>1018</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -2425,7 +2485,7 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2434,16 +2494,12 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K29" t="n">
-        <v>157</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
+        <v>1014</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
           <t>+0</t>
@@ -2451,22 +2507,27 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>+7</t>
+          <t>+0</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
+          <t>+5</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -2475,19 +2536,19 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>新疆</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>xinjiang</t>
+          <t>chongqing</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>76</v>
+        <v>576</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -2497,7 +2558,7 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2506,16 +2567,12 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K30" t="n">
-        <v>62</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
           <t>+0</t>
@@ -2523,22 +2580,27 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>+19</t>
+          <t>+0</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>-19</t>
-        </is>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
+          <t>+4</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>19</v>
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -2547,19 +2609,19 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>gansu</t>
+          <t>jiangsu</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91</v>
+        <v>631</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -2569,7 +2631,7 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2578,16 +2640,12 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>82</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
+        <v>631</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
           <t>+0</t>
@@ -2600,17 +2658,22 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -2619,29 +2682,29 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>宁夏</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ningxia</t>
+          <t>yunnan</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>73</v>
+        <v>174</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2650,16 +2713,12 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K32" t="n">
-        <v>69</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
           <t>+0</t>
@@ -2667,22 +2726,27 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>+1</t>
+          <t>+0</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="P32" t="n">
-        <v>1</v>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -2691,19 +2755,19 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>澳门</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>aomen</t>
+          <t>anhui</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>10</v>
+        <v>990</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2713,7 +2777,7 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2722,16 +2786,12 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K33" t="n">
-        <v>8</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
+        <v>984</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
           <t>+0</t>
@@ -2747,13 +2807,18 @@
           <t>+0</t>
         </is>
       </c>
-      <c r="P33" t="n">
-        <v>0</v>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2763,19 +2828,19 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>西藏</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>xizang</t>
+          <t>fujian</t>
         </is>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>296</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2794,16 +2859,12 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
           <t>+0</t>
@@ -2814,14 +2875,23 @@
           <t>+0</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="n">
-        <v>0</v>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2831,19 +2901,19 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>青海</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>qinghai</t>
+          <t>shanxi</t>
         </is>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2865,13 +2935,9 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>18</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
           <t>+0</t>
@@ -2882,14 +2948,23 @@
           <t>+0</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="n">
-        <v>0</v>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
         <v>0</v>
       </c>
     </row>
